--- a/harness/q19_schematic.xlsx
+++ b/harness/q19_schematic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\Q20\harness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\formula\Q20\harness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E891CC5-494B-4B53-BDB0-34F05DB35A44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E52EE-60B6-4047-A4B8-1BDD257D1286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="876" windowWidth="6120" windowHeight="3048" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDM - DONE" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,19 @@
     <sheet name="Tire Temp Conector" sheetId="8" r:id="rId16"/>
     <sheet name="Arduino" sheetId="4" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6304,7 +6310,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:S62" totalsRowShown="0" dataDxfId="163">
   <autoFilter ref="A1:S62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S62">
-    <sortCondition ref="B1:B62"/>
+    <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Pin" dataDxfId="162"/>
@@ -7029,32 +7035,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.68359375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7113,18 +7119,15 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>674</v>
+        <v>594</v>
       </c>
       <c r="F2" t="s">
         <v>544</v>
@@ -7132,7 +7135,9 @@
       <c r="G2" t="s">
         <v>544</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" s="2"/>
@@ -7140,20 +7145,25 @@
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="G3" s="52"/>
-      <c r="I3"/>
+        <v>208</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" s="2"/>
@@ -7161,41 +7171,53 @@
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>544</v>
-      </c>
-      <c r="G4" t="s">
-        <v>544</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="23"/>
       <c r="K4"/>
       <c r="L4" s="2"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G5" t="s">
-        <v>544</v>
-      </c>
-      <c r="I5"/>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="H5" t="s">
+        <v>657</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" s="2"/>
@@ -7203,41 +7225,53 @@
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s">
-        <v>721</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
+        <v>634</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="23"/>
       <c r="K6"/>
       <c r="L6" s="2"/>
       <c r="M6" s="1"/>
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7"/>
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="H7" t="s">
+        <v>694</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" s="2"/>
@@ -7245,14 +7279,25 @@
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8"/>
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" s="2"/>
@@ -7260,14 +7305,25 @@
       <c r="N8" s="2"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9"/>
+        <v>46</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="2"/>
@@ -7275,14 +7331,25 @@
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10"/>
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" s="2"/>
@@ -7290,14 +7357,16 @@
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11"/>
+        <v>197</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" s="2"/>
@@ -7305,14 +7374,25 @@
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12"/>
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" s="2"/>
@@ -7320,14 +7400,20 @@
       <c r="N12" s="2"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13"/>
+        <v>198</v>
+      </c>
+      <c r="C13" t="s">
+        <v>634</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" s="2"/>
@@ -7335,26 +7421,25 @@
       <c r="N13" s="2"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>636</v>
-      </c>
-      <c r="D14" t="s">
-        <v>676</v>
-      </c>
-      <c r="F14" t="s">
-        <v>544</v>
-      </c>
-      <c r="G14" t="s">
-        <v>544</v>
-      </c>
-      <c r="I14"/>
+        <v>172</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" s="2"/>
@@ -7362,23 +7447,22 @@
       <c r="N14" s="2"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" t="s">
-        <v>544</v>
-      </c>
-      <c r="G15" t="s">
-        <v>326</v>
-      </c>
-      <c r="I15"/>
+        <v>634</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" s="2"/>
@@ -7386,22 +7470,28 @@
       <c r="N15" s="2"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="I16"/>
+        <v>375</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="H16" t="s">
+        <v>656</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" s="2"/>
@@ -7409,17 +7499,20 @@
       <c r="N16" s="2"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>556</v>
-      </c>
-      <c r="I17"/>
+        <v>199</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" s="2"/>
@@ -7427,14 +7520,18 @@
       <c r="N17" s="2"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18"/>
+        <v>201</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" s="2"/>
@@ -7442,14 +7539,11 @@
       <c r="N18" s="2"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="21"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" s="2"/>
@@ -7457,12 +7551,24 @@
       <c r="N19" s="2"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>636</v>
+      </c>
+      <c r="D20" t="s">
+        <v>676</v>
+      </c>
+      <c r="F20" t="s">
+        <v>544</v>
+      </c>
+      <c r="G20" t="s">
+        <v>544</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -7472,12 +7578,9 @@
       <c r="N20" s="2"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -7487,25 +7590,22 @@
       <c r="N21" s="2"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>594</v>
-      </c>
-      <c r="F22" t="s">
-        <v>544</v>
-      </c>
-      <c r="G22" t="s">
-        <v>544</v>
-      </c>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="D22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" s="2"/>
@@ -7513,16 +7613,11 @@
       <c r="N22" s="2"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>197</v>
-      </c>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" s="2"/>
@@ -7530,45 +7625,26 @@
       <c r="N23" s="2"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" t="s">
-        <v>634</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
       <c r="K24"/>
       <c r="L24" s="2"/>
       <c r="M24" s="1"/>
       <c r="N24" s="2"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" t="s">
-        <v>634</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="I25" t="s">
-        <v>42</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" s="2"/>
@@ -7576,46 +7652,39 @@
       <c r="N25" s="2"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" t="s">
-        <v>634</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
       <c r="K26"/>
       <c r="L26" s="2"/>
       <c r="M26" s="1"/>
       <c r="N26" s="2"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>631</v>
       </c>
       <c r="C27" t="s">
-        <v>634</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+        <v>632</v>
+      </c>
+      <c r="D27" t="s">
+        <v>530</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>544</v>
+      </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -7624,25 +7693,26 @@
       <c r="N27" s="2"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>721</v>
       </c>
       <c r="F28" s="52" t="s">
         <v>544</v>
       </c>
-      <c r="G28" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="I28" t="s">
-        <v>42</v>
-      </c>
+      <c r="G28" t="s">
+        <v>326</v>
+      </c>
+      <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" s="2"/>
@@ -7650,20 +7720,26 @@
       <c r="N28" s="2"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="I29" t="s">
-        <v>42</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>674</v>
+      </c>
+      <c r="F29" t="s">
+        <v>544</v>
+      </c>
+      <c r="G29" t="s">
+        <v>544</v>
+      </c>
+      <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" s="2"/>
@@ -7671,25 +7747,23 @@
       <c r="N29" s="2"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="I30" t="s">
-        <v>42</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F30" t="s">
+        <v>544</v>
+      </c>
+      <c r="G30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" s="2"/>
@@ -7697,18 +7771,17 @@
       <c r="N30" s="2"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="I31" t="s">
-        <v>42</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>556</v>
+      </c>
+      <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" s="2"/>
@@ -7716,25 +7789,14 @@
       <c r="N31" s="2"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="I32" t="s">
-        <v>42</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" s="2"/>
@@ -7742,18 +7804,14 @@
       <c r="N32" s="2"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="I33" t="s">
-        <v>42</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" s="2"/>
@@ -7761,25 +7819,14 @@
       <c r="N33" s="2"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" s="2"/>
@@ -7787,18 +7834,14 @@
       <c r="N34" s="2"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="I35" t="s">
-        <v>42</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" s="2"/>
@@ -7806,25 +7849,11 @@
       <c r="N35" s="2"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" t="s">
-        <v>629</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="I36" t="s">
-        <v>42</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" s="2"/>
@@ -7832,18 +7861,11 @@
       <c r="N36" s="2"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="I37" t="s">
-        <v>42</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37" s="2"/>
@@ -7851,24 +7873,24 @@
       <c r="N37" s="2"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="F38" s="52" t="s">
         <v>544</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>326</v>
+        <v>544</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
@@ -7877,28 +7899,11 @@
       <c r="N38" s="2"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>630</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="H39" t="s">
-        <v>657</v>
-      </c>
-      <c r="I39" t="s">
-        <v>43</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" s="2"/>
@@ -7906,27 +7911,24 @@
       <c r="N39" s="2"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>593</v>
+        <v>175</v>
       </c>
       <c r="F40" s="52" t="s">
         <v>544</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="H40" t="s">
-        <v>694</v>
+        <v>326</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -7935,25 +7937,11 @@
       <c r="N40" s="2"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>635</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="I41" t="s">
-        <v>43</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" s="2"/>
@@ -7961,24 +7949,24 @@
       <c r="N41" s="2"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>629</v>
       </c>
       <c r="F42" s="52" t="s">
         <v>544</v>
       </c>
       <c r="G42" s="52" t="s">
-        <v>544</v>
+        <v>326</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -7987,25 +7975,11 @@
       <c r="N42" s="2"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="I43" t="s">
-        <v>43</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" s="2"/>
@@ -8013,27 +7987,17 @@
       <c r="N43" s="2"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>375</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G44" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="H44" t="s">
-        <v>656</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -8042,28 +8006,11 @@
       <c r="N44" s="2"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>631</v>
-      </c>
-      <c r="C45" t="s">
-        <v>632</v>
-      </c>
-      <c r="D45" t="s">
-        <v>530</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="I45" t="s">
-        <v>376</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" s="2"/>
@@ -8071,27 +8018,17 @@
       <c r="N45" s="2"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>631</v>
-      </c>
-      <c r="C46" t="s">
-        <v>632</v>
-      </c>
-      <c r="D46" t="s">
-        <v>530</v>
-      </c>
-      <c r="F46" t="s">
-        <v>544</v>
-      </c>
-      <c r="G46" t="s">
-        <v>544</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -8100,12 +8037,9 @@
       <c r="N46" s="2"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>534</v>
-      </c>
-      <c r="B47" t="s">
-        <v>633</v>
+        <v>27</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -8115,11 +8049,18 @@
       <c r="N47" s="2"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="I48" t="s">
+        <v>42</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" s="2"/>
@@ -8127,9 +8068,9 @@
       <c r="N48" s="2"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -8139,9 +8080,12 @@
       <c r="N49" s="2"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -8151,9 +8095,9 @@
       <c r="N50" s="2"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -8163,9 +8107,12 @@
       <c r="N51" s="2"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -8175,11 +8122,28 @@
       <c r="N52" s="2"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>187</v>
-      </c>
-      <c r="I53"/>
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>631</v>
+      </c>
+      <c r="C53" t="s">
+        <v>632</v>
+      </c>
+      <c r="D53" t="s">
+        <v>530</v>
+      </c>
+      <c r="F53" t="s">
+        <v>544</v>
+      </c>
+      <c r="G53" t="s">
+        <v>544</v>
+      </c>
+      <c r="I53" t="s">
+        <v>376</v>
+      </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53" s="2"/>
@@ -8187,9 +8151,9 @@
       <c r="N53" s="2"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -8199,9 +8163,12 @@
       <c r="N54" s="2"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -8211,9 +8178,12 @@
       <c r="N55" s="2"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -8223,10 +8193,19 @@
       <c r="N56" s="2"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>194</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>377</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="G57" s="52"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -8235,9 +8214,12 @@
       <c r="N57" s="2"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -8247,9 +8229,12 @@
       <c r="N58" s="2"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
       </c>
       <c r="I59"/>
       <c r="J59"/>
@@ -8259,9 +8244,18 @@
       <c r="N59" s="2"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" t="s">
+        <v>544</v>
+      </c>
+      <c r="G60" t="s">
+        <v>544</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -8271,9 +8265,18 @@
       <c r="N60" s="2"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" t="s">
+        <v>544</v>
+      </c>
+      <c r="G61" t="s">
+        <v>544</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
@@ -8283,9 +8286,12 @@
       <c r="N61" s="2"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>534</v>
+      </c>
+      <c r="B62" t="s">
+        <v>633</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -8312,13 +8318,13 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8329,7 +8335,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8351,7 +8357,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8362,7 +8368,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8397,14 +8403,14 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
@@ -8430,7 +8436,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -8450,7 +8456,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -8470,7 +8476,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -8510,7 +8516,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -8530,7 +8536,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -8550,7 +8556,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -8570,7 +8576,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -8621,7 +8627,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -8638,12 +8644,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>596</v>
       </c>
@@ -8651,7 +8657,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>599</v>
       </c>
@@ -8659,22 +8665,22 @@
         <v>597</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>603</v>
       </c>
@@ -8695,14 +8701,14 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -8739,7 +8745,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -8750,7 +8756,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -8761,7 +8767,7 @@
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -8771,7 +8777,7 @@
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -8785,7 +8791,7 @@
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="54">
         <v>6</v>
       </c>
@@ -8818,18 +8824,18 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -8843,7 +8849,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>354</v>
       </c>
@@ -8857,7 +8863,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>355</v>
       </c>
@@ -8871,7 +8877,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>356</v>
       </c>
@@ -8901,13 +8907,13 @@
       <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.83984375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
@@ -8918,126 +8924,126 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>178</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>234</v>
       </c>
@@ -9045,7 +9051,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
         <v>255</v>
       </c>
@@ -9056,7 +9062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>256</v>
       </c>
@@ -9064,7 +9070,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
         <v>257</v>
       </c>
@@ -9072,7 +9078,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
         <v>258</v>
       </c>
@@ -9080,7 +9086,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
         <v>259</v>
       </c>
@@ -9088,7 +9094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
         <v>260</v>
       </c>
@@ -9096,7 +9102,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
         <v>261</v>
       </c>
@@ -9104,7 +9110,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>262</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
         <v>263</v>
       </c>
@@ -9123,12 +9129,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
         <v>364</v>
       </c>
@@ -9152,13 +9158,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>310</v>
       </c>
@@ -9175,7 +9181,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>311</v>
       </c>
@@ -9190,7 +9196,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -9205,7 +9211,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>311</v>
       </c>
@@ -9220,7 +9226,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>311</v>
       </c>
@@ -9234,7 +9240,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -9248,7 +9254,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -9262,7 +9268,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>311</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>311</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>312</v>
       </c>
@@ -9304,7 +9310,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -9318,7 +9324,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -9332,7 +9338,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>312</v>
       </c>
@@ -9374,7 +9380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>312</v>
       </c>
@@ -9410,12 +9416,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
@@ -9432,7 +9438,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9444,7 +9450,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -9456,7 +9462,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -9468,7 +9474,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -9480,7 +9486,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -9492,7 +9498,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -9504,7 +9510,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9516,7 +9522,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -9547,15 +9553,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
@@ -9569,7 +9575,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9583,7 +9589,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -9597,7 +9603,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -9611,7 +9617,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -9625,7 +9631,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -9639,7 +9645,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -9653,7 +9659,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9665,14 +9671,14 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -9684,7 +9690,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -9696,7 +9702,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -9710,7 +9716,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -9739,23 +9745,23 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.41796875" customWidth="1"/>
+    <col min="9" max="10" width="10.83984375" customWidth="1"/>
+    <col min="11" max="11" width="22.26171875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
@@ -9785,7 +9791,7 @@
       </c>
       <c r="J1" s="33"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9807,7 +9813,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9818,7 +9824,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9829,7 +9835,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9840,7 +9846,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9874,7 +9880,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9897,7 +9903,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9920,7 +9926,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9939,7 +9945,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9950,7 +9956,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9961,7 +9967,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9973,7 +9979,7 @@
       </c>
       <c r="H14" s="52"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9987,7 +9993,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10008,7 +10014,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10026,7 +10032,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10084,7 +10090,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10110,7 +10116,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10136,7 +10142,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10162,7 +10168,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10188,7 +10194,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10211,7 +10217,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10234,7 +10240,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10247,7 +10253,7 @@
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10260,7 +10266,7 @@
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10276,7 +10282,7 @@
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10294,7 +10300,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10307,7 +10313,7 @@
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10320,7 +10326,7 @@
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10333,7 +10339,7 @@
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10346,7 +10352,7 @@
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10359,7 +10365,7 @@
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10378,7 +10384,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10397,7 +10403,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10410,7 +10416,7 @@
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10423,7 +10429,7 @@
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10436,7 +10442,7 @@
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10449,7 +10455,7 @@
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10462,7 +10468,7 @@
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -10482,7 +10488,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="24">
         <v>42</v>
       </c>
@@ -10502,7 +10508,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="24">
         <v>43</v>
       </c>
@@ -10531,7 +10537,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="24">
         <v>44</v>
       </c>
@@ -10560,7 +10566,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="24">
         <v>45</v>
       </c>
@@ -10586,7 +10592,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="24">
         <v>46</v>
       </c>
@@ -10612,7 +10618,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="24">
         <v>47</v>
       </c>
@@ -10638,7 +10644,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="24">
         <v>48</v>
       </c>
@@ -10663,7 +10669,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="24">
         <v>49</v>
       </c>
@@ -10679,7 +10685,7 @@
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="24">
         <v>50</v>
       </c>
@@ -10695,7 +10701,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="24">
         <v>51</v>
       </c>
@@ -10711,7 +10717,7 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="24">
         <v>52</v>
       </c>
@@ -10732,7 +10738,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="24">
         <v>53</v>
       </c>
@@ -10748,7 +10754,7 @@
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -10764,7 +10770,7 @@
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="24">
         <v>55</v>
       </c>
@@ -10780,7 +10786,7 @@
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -10796,7 +10802,7 @@
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="24">
         <v>57</v>
       </c>
@@ -10812,7 +10818,7 @@
       <c r="G58" s="53"/>
       <c r="H58" s="53"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="24">
         <v>58</v>
       </c>
@@ -10828,7 +10834,7 @@
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="24">
         <v>59</v>
       </c>
@@ -10844,7 +10850,7 @@
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="24">
         <v>60</v>
       </c>
@@ -10860,7 +10866,7 @@
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="24">
         <v>61</v>
       </c>
@@ -10876,7 +10882,7 @@
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="24">
         <v>62</v>
       </c>
@@ -10892,7 +10898,7 @@
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="24">
         <v>63</v>
       </c>
@@ -10913,7 +10919,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="24">
         <v>64</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="24">
         <v>65</v>
       </c>
@@ -10955,7 +10961,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -10976,7 +10982,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="24">
         <v>67</v>
       </c>
@@ -11001,7 +11007,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="24">
         <v>68</v>
       </c>
@@ -11023,7 +11029,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="24">
         <v>69</v>
       </c>
@@ -11039,7 +11045,7 @@
       <c r="G70" s="53"/>
       <c r="H70" s="53"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="24">
         <v>70</v>
       </c>
@@ -11055,7 +11061,7 @@
       <c r="G71" s="53"/>
       <c r="H71" s="53"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="24">
         <v>71</v>
       </c>
@@ -11071,7 +11077,7 @@
       <c r="G72" s="53"/>
       <c r="H72" s="53"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="24">
         <v>72</v>
       </c>
@@ -11087,7 +11093,7 @@
       <c r="G73" s="53"/>
       <c r="H73" s="53"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="24">
         <v>73</v>
       </c>
@@ -11109,7 +11115,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="24">
         <v>74</v>
       </c>
@@ -11131,7 +11137,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="24">
         <v>75</v>
       </c>
@@ -11147,7 +11153,7 @@
       <c r="G76" s="53"/>
       <c r="H76" s="53"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="24">
         <v>76</v>
       </c>
@@ -11163,7 +11169,7 @@
       <c r="G77" s="53"/>
       <c r="H77" s="53"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="24">
         <v>77</v>
       </c>
@@ -11185,7 +11191,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="24">
         <v>78</v>
       </c>
@@ -11207,7 +11213,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="24">
         <v>79</v>
       </c>
@@ -11236,23 +11242,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.41796875" customWidth="1"/>
+    <col min="5" max="5" width="5.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26171875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>69</v>
       </c>
@@ -11287,7 +11293,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -11310,7 +11316,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -11333,7 +11339,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -11356,7 +11362,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -11376,7 +11382,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -11396,7 +11402,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -11413,7 +11419,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -11433,7 +11439,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -11453,7 +11459,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -11464,7 +11470,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="34" t="s">
         <v>97</v>
       </c>
@@ -11482,7 +11488,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="34" t="s">
         <v>98</v>
       </c>
@@ -11500,7 +11506,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -11520,7 +11526,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -11540,7 +11546,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -11560,7 +11566,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -11577,7 +11583,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -11594,7 +11600,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -11607,7 +11613,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -11647,7 +11653,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="34" t="s">
         <v>107</v>
       </c>
@@ -11665,7 +11671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="34" t="s">
         <v>108</v>
       </c>
@@ -11686,7 +11692,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="34" t="s">
         <v>109</v>
       </c>
@@ -11704,7 +11710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="34" t="s">
         <v>110</v>
       </c>
@@ -11719,7 +11725,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="34" t="s">
         <v>111</v>
       </c>
@@ -11734,7 +11740,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -11751,7 +11757,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -11768,7 +11774,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -11785,7 +11791,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -11793,7 +11799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -11810,7 +11816,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>212</v>
       </c>
@@ -11827,7 +11833,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>213</v>
       </c>
@@ -11844,7 +11850,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -11854,7 +11860,7 @@
       <c r="C33" s="52"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -11862,7 +11868,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -11882,7 +11888,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -11893,7 +11899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -11910,7 +11916,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -11921,7 +11927,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -11938,7 +11944,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -11955,7 +11961,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -11972,7 +11978,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -11985,7 +11991,7 @@
       <c r="D42" s="52"/>
       <c r="E42" s="52"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -12002,7 +12008,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -12010,7 +12016,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -12021,7 +12027,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -12029,7 +12035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -12040,7 +12046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -12048,7 +12054,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -12056,7 +12062,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -12073,7 +12079,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -12081,7 +12087,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -12089,7 +12095,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -12104,7 +12110,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -12114,7 +12120,7 @@
       <c r="D54" s="52"/>
       <c r="E54" s="52"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -12131,7 +12137,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -12148,7 +12154,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -12165,7 +12171,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -12178,7 +12184,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -12195,7 +12201,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -12212,7 +12218,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -12246,9 +12252,9 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>722</v>
       </c>
@@ -12262,7 +12268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>723</v>
       </c>
@@ -12276,7 +12282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -12290,7 +12296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>548</v>
       </c>
@@ -12317,27 +12323,27 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.41796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.68359375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.41796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
@@ -12369,7 +12375,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -12398,7 +12404,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -12427,7 +12433,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -12456,7 +12462,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -12485,7 +12491,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -12512,7 +12518,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37">
         <v>6</v>
       </c>
@@ -12541,7 +12547,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="37">
         <v>7</v>
       </c>
@@ -12558,19 +12564,19 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
@@ -12587,7 +12593,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28">
         <v>1</v>
       </c>
@@ -12602,7 +12608,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28">
         <v>2</v>
       </c>
@@ -12617,7 +12623,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28">
         <v>3</v>
       </c>
@@ -12634,7 +12640,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28">
         <v>4</v>
       </c>
@@ -12654,7 +12660,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28">
         <v>5</v>
       </c>
@@ -12674,7 +12680,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="37">
         <v>6</v>
       </c>
@@ -12694,7 +12700,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="37">
         <v>7</v>
       </c>
@@ -12714,12 +12720,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>658</v>
       </c>
@@ -12730,7 +12736,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -12777,7 +12783,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28">
         <v>1</v>
       </c>
@@ -12820,7 +12826,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28">
         <v>2</v>
       </c>
@@ -12859,7 +12865,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28">
         <v>3</v>
       </c>
@@ -12896,7 +12902,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="28">
         <v>4</v>
       </c>
@@ -12937,7 +12943,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="28">
         <v>5</v>
       </c>
@@ -12968,7 +12974,7 @@
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="37">
         <v>6</v>
       </c>
@@ -12997,7 +13003,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="54">
         <v>7</v>
       </c>
@@ -13014,7 +13020,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="54"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -13043,20 +13049,20 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.41796875" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -13091,7 +13097,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13114,7 +13120,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13137,7 +13143,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13174,7 +13180,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13188,32 +13194,32 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -13236,7 +13242,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1</v>
       </c>
@@ -13250,7 +13256,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13264,7 +13270,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>3</v>
       </c>
@@ -13297,17 +13303,17 @@
       <selection activeCell="A2" sqref="A2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
@@ -13330,7 +13336,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="23">
         <v>6</v>
       </c>
@@ -13345,7 +13351,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26">
         <v>7</v>
       </c>
@@ -13360,7 +13366,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37"/>
       <c r="B4" s="26" t="s">
         <v>575</v>
@@ -13375,7 +13381,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26">
         <v>10</v>
       </c>
@@ -13392,7 +13398,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="23">
         <v>15</v>
       </c>
@@ -13409,7 +13415,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26">
         <v>16</v>
       </c>
@@ -13426,7 +13432,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27">
         <v>17</v>
       </c>
@@ -13443,7 +13449,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="23">
         <v>18</v>
       </c>
@@ -13476,30 +13482,30 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.578125" customWidth="1"/>
+    <col min="9" max="9" width="13.578125" customWidth="1"/>
+    <col min="10" max="10" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26171875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.68359375" customWidth="1"/>
+    <col min="17" max="17" width="6.41796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.68359375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.68359375" customWidth="1"/>
+    <col min="22" max="22" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="59" t="s">
         <v>496</v>
       </c>
@@ -13523,7 +13529,7 @@
       <c r="R1" s="59"/>
       <c r="S1" s="59"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
@@ -13570,7 +13576,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37">
         <v>17</v>
       </c>
@@ -13609,7 +13615,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26">
         <v>18</v>
       </c>
@@ -13648,7 +13654,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37">
         <v>19</v>
       </c>
@@ -13681,7 +13687,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26">
         <v>22</v>
       </c>
@@ -13722,7 +13728,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="40">
         <v>24</v>
       </c>
@@ -13763,7 +13769,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37">
         <v>26</v>
       </c>
@@ -13806,7 +13812,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="39" t="s">
         <v>606</v>
       </c>
@@ -13849,7 +13855,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>607</v>
       </c>
@@ -13880,7 +13886,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="37" t="s">
         <v>608</v>
       </c>
@@ -13914,7 +13920,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26" t="s">
         <v>609</v>
       </c>
@@ -13948,7 +13954,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
         <v>626</v>
       </c>
@@ -13974,7 +13980,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26" t="s">
         <v>623</v>
       </c>
@@ -14002,7 +14008,7 @@
       </c>
       <c r="J14" s="39"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
         <v>621</v>
       </c>
@@ -14032,7 +14038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26" t="s">
         <v>622</v>
       </c>
@@ -14076,7 +14082,7 @@
       <c r="T16" s="59"/>
       <c r="U16" s="59"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="26" t="s">
         <v>64</v>
       </c>
@@ -14130,7 +14136,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26" t="s">
         <v>624</v>
       </c>
@@ -14190,7 +14196,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26" t="s">
         <v>264</v>
       </c>
@@ -14248,7 +14254,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26" t="s">
         <v>265</v>
       </c>
@@ -14293,7 +14299,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="37" t="s">
         <v>605</v>
       </c>
@@ -14332,7 +14338,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="37"/>
       <c r="B22" s="48" t="s">
         <v>677</v>
@@ -14352,7 +14358,7 @@
       </c>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="37"/>
       <c r="B23" s="37" t="s">
         <v>679</v>
@@ -14377,7 +14383,7 @@
       <c r="N23" s="59"/>
       <c r="O23" s="59"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K24" s="59" t="s">
         <v>594</v>
       </c>
@@ -14386,7 +14392,7 @@
       <c r="N24" s="59"/>
       <c r="O24" s="59"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K25" t="s">
         <v>69</v>
       </c>
@@ -14403,7 +14409,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K26">
         <v>1</v>
       </c>
@@ -14420,7 +14426,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K27">
         <v>2</v>
       </c>
@@ -14437,7 +14443,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K28">
         <v>3</v>
       </c>
@@ -14454,7 +14460,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K29">
         <v>4</v>
       </c>
@@ -14471,7 +14477,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K30">
         <v>5</v>
       </c>
@@ -14488,7 +14494,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K31">
         <v>6</v>
       </c>
@@ -14505,7 +14511,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="34" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" s="59" t="s">
         <v>704</v>
       </c>
@@ -14514,7 +14520,7 @@
       <c r="N34" s="59"/>
       <c r="O34" s="59"/>
     </row>
-    <row r="35" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" t="s">
         <v>69</v>
       </c>
@@ -14531,7 +14537,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="36" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K36">
         <v>1</v>
       </c>
@@ -14548,7 +14554,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K37">
         <v>2</v>
       </c>
@@ -14565,7 +14571,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="40" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K40" s="59" t="s">
         <v>705</v>
       </c>
@@ -14574,7 +14580,7 @@
       <c r="N40" s="59"/>
       <c r="O40" s="59"/>
     </row>
-    <row r="41" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K41" t="s">
         <v>69</v>
       </c>
@@ -14591,7 +14597,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K42">
         <v>1</v>
       </c>
@@ -14608,7 +14614,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="43" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K43">
         <v>2</v>
       </c>
@@ -14625,7 +14631,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="44" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K44">
         <v>3</v>
       </c>
@@ -14642,7 +14648,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K45">
         <v>4</v>
       </c>
@@ -14694,25 +14700,25 @@
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.41796875" customWidth="1"/>
+    <col min="9" max="9" width="4.578125" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>69</v>
       </c>
@@ -14742,7 +14748,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="39">
         <v>1</v>
       </c>
@@ -14763,7 +14769,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37">
         <v>2</v>
       </c>
@@ -14784,7 +14790,7 @@
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37">
         <v>3</v>
       </c>
@@ -14805,7 +14811,7 @@
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37">
         <v>4</v>
       </c>
@@ -14828,7 +14834,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -14851,7 +14857,7 @@
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="39">
         <v>6</v>
       </c>
@@ -14874,7 +14880,7 @@
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>310</v>
       </c>
@@ -14891,17 +14897,17 @@
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>582</v>
       </c>
